--- a/biology/Zoologie/Euglenes_pygmaeus/Euglenes_pygmaeus.xlsx
+++ b/biology/Zoologie/Euglenes_pygmaeus/Euglenes_pygmaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euglenes pygmaeus est une espèce de coléoptère de la famille des Aderidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est considérée comme très rare en Méditerranée[1].
-Elle également présente en Amérique du Nord[2] et en Suisse[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est considérée comme très rare en Méditerranée.
+Elle également présente en Amérique du Nord et en Suisse.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est inscrite dans la liste des espèces de coléoptères saproxyliques emblématiques de Suisse, où elle possède un indice d'exigence écologique de 2, c'est-à-dire qu'il s'agit d'une espèce exigeante liée à du bois mort de gros diamètre ou à des essences peu abondantes[3]. Il s'agit d'une espèce saproxylique. C'est une espèce nocturne[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est inscrite dans la liste des espèces de coléoptères saproxyliques emblématiques de Suisse, où elle possède un indice d'exigence écologique de 2, c'est-à-dire qu'il s'agit d'une espèce exigeante liée à du bois mort de gros diamètre ou à des essences peu abondantes. Il s'agit d'une espèce saproxylique. C'est une espèce nocturne.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Euglenes pygmaeus (De Geer, 1775)[4].
-L'espèce a été initialement classée dans le genre Cerambyx sous le protonyme Cerambyx pygmaeus De Geer, 1775[4].
-Euglenes pygmaeus a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Euglenes pygmaeus (De Geer, 1775).
+L'espèce a été initialement classée dans le genre Cerambyx sous le protonyme Cerambyx pygmaeus De Geer, 1775.
+Euglenes pygmaeus a pour synonymes :
 Aderus pygmaeus (De Geer, 1775)
 Anidorus lokvenci Roubal, 1938
 Cerambyx pygmaeus De Geer, 1775
